--- a/Tops Data Analytics/Asssignment/VLOOKUP 1 (1).xlsx
+++ b/Tops Data Analytics/Asssignment/VLOOKUP 1 (1).xlsx
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1113,7 +1113,10 @@
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13">
+        <f>VLOOKUP(B31,$C$3:$F$15,3,FALSE)</f>
+        <v>18276</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1126,7 +1129,10 @@
       <c r="B32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13" t="e">
+        <f t="shared" ref="C32:C33" si="0">VLOOKUP(B32,$C$3:$F$15,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1139,7 +1145,10 @@
       <c r="B33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="13">
+        <f t="shared" si="0"/>
+        <v>10959</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
